--- a/testData/EmployeeList.xlsx
+++ b/testData/EmployeeList.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilnoza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilnoza\JavaCourse\JavaProjects\SeleniumProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1DD7D6-CD5B-4655-8FA5-D80345398DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA831F52-52FB-46E5-B451-00907BF24B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CB6C40A-71BA-4709-980A-C78A29EE8D44}"/>
+    <workbookView xWindow="3168" yWindow="3228" windowWidth="17280" windowHeight="8964" xr2:uid="{9CB6C40A-71BA-4709-980A-C78A29EE8D44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Firstname</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>NY</t>
+  </si>
+  <si>
+    <t>Seniority Level</t>
+  </si>
+  <si>
+    <t>Mid-Level</t>
+  </si>
+  <si>
+    <t>Entry-Level</t>
+  </si>
+  <si>
+    <t>Senior-Level</t>
   </si>
 </sst>
 </file>
@@ -448,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2FE311-72C1-4EFB-832F-2C36FEC8C4C8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +488,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -495,8 +511,11 @@
       <c r="F2">
         <v>105000</v>
       </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -515,8 +534,11 @@
       <c r="F3">
         <v>90000</v>
       </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -534,9 +556,24 @@
       </c>
       <c r="F4">
         <v>120000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>